--- a/biology/Histoire de la zoologie et de la botanique/Boris_Chichkine/Boris_Chichkine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Boris_Chichkine/Boris_Chichkine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boris Konstantinovitch Chichkine (ou Schischkin, en transcription allemande), né le 19 avril 1886 à Sovetsk dans l'oblast de Kirov et mort le 21 mars 1963 à Léningrad, est un botaniste russe. Il a apporté une contribution notable à la taxinomie de plantes à fleurs.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université de Tomsk dont il est diplômé en 1911. Il est assistant au sein de cette même université de 1914 à 1918, puis professeur de 1925 à 1930. Il devient en 1931, directeur à l’Institut de botanique de l’Académie des sciences de la république socialiste fédérative soviétique de Russie à Léningrad, puis son directeur de 1938 à 1949.
 Chichkine est l’auteur de nombreuses publications, notamment sur la flore de Sibérie, de l’Asie centrale, des Carpates et du Caucase.
